--- a/data/outputs/OR/15.xlsx
+++ b/data/outputs/OR/15.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ51"/>
+  <dimension ref="A1:BR51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1130,6 +1136,11 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>3144308</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1354,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1548,6 +1560,11 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>2707636</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1761,6 +1778,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1970,6 +1988,11 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>2774007</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2171,6 +2194,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2384,6 +2408,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2601,6 +2626,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2818,6 +2844,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3027,6 +3054,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3228,6 +3256,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3437,6 +3466,11 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>3144099</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3642,6 +3676,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3859,6 +3894,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4056,6 +4092,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4269,6 +4306,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4474,6 +4512,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4679,6 +4718,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4896,6 +4936,11 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr">
+        <is>
+          <t>10366476</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5105,6 +5150,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5318,6 +5364,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5519,6 +5566,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5732,6 +5780,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5949,6 +5998,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6166,6 +6216,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6252,7 +6303,7 @@
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>de Araujo, Silvio Alexandre/0000-0002-4762-2048; de Araujo, Silvio/0000-0002-4762-2048; </t>
+          <t>de Araujo, Silvio Alexandre/0000-0002-4762-2048; de Araujo, Silvio/0000-0002-4762-2048;</t>
         </is>
       </c>
       <c r="AB28" t="inlineStr">
@@ -6387,6 +6438,11 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>7999861</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6600,6 +6656,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6801,6 +6858,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7010,6 +7068,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7223,6 +7282,11 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr">
+        <is>
+          <t>4372539</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7424,6 +7488,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7637,6 +7702,11 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr">
+        <is>
+          <t>4420905</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7846,6 +7916,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8063,6 +8134,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8264,6 +8336,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8477,6 +8550,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8686,6 +8760,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8895,6 +8970,11 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr">
+        <is>
+          <t>1959580</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9096,6 +9176,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9305,6 +9386,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9522,6 +9604,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9731,6 +9814,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9944,6 +10028,11 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>3938754</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10157,6 +10246,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10370,6 +10460,11 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>3992457</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10575,6 +10670,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10788,6 +10884,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10997,6 +11094,11 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr">
+        <is>
+          <t>3885489</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11206,6 +11308,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
